--- a/natmiOut/OldD4/LR-pairs_lrc2p/Dll1-Notch1.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Dll1-Notch1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>11.8640909983488</v>
+        <v>12.44223866666667</v>
       </c>
       <c r="H2">
-        <v>11.8640909983488</v>
+        <v>37.326716</v>
       </c>
       <c r="I2">
-        <v>0.7736875767822819</v>
+        <v>0.7536321101125724</v>
       </c>
       <c r="J2">
-        <v>0.7736875767822819</v>
+        <v>0.8014994705408</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>53.7368122527561</v>
+        <v>56.01527666666667</v>
       </c>
       <c r="N2">
-        <v>53.7368122527561</v>
+        <v>168.04583</v>
       </c>
       <c r="O2">
-        <v>0.4899202373741286</v>
+        <v>0.4883616647765734</v>
       </c>
       <c r="P2">
-        <v>0.4899202373741286</v>
+        <v>0.5237161609491596</v>
       </c>
       <c r="Q2">
-        <v>637.5384305278832</v>
+        <v>696.9554412660311</v>
       </c>
       <c r="R2">
-        <v>637.5384305278832</v>
+        <v>6272.598971394279</v>
       </c>
       <c r="S2">
-        <v>0.3790452012705899</v>
+        <v>0.3680450319236577</v>
       </c>
       <c r="T2">
-        <v>0.3790452012705899</v>
+        <v>0.4197582257144118</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>11.8640909983488</v>
+        <v>12.44223866666667</v>
       </c>
       <c r="H3">
-        <v>11.8640909983488</v>
+        <v>37.326716</v>
       </c>
       <c r="I3">
-        <v>0.7736875767822819</v>
+        <v>0.7536321101125724</v>
       </c>
       <c r="J3">
-        <v>0.7736875767822819</v>
+        <v>0.8014994705408</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>8.078403595828309</v>
+        <v>9.149483999999999</v>
       </c>
       <c r="N3">
-        <v>8.078403595828309</v>
+        <v>27.448452</v>
       </c>
       <c r="O3">
-        <v>0.07365106416540794</v>
+        <v>0.0797685471532371</v>
       </c>
       <c r="P3">
-        <v>0.07365106416540794</v>
+        <v>0.08554331818550501</v>
       </c>
       <c r="Q3">
-        <v>95.84291538229522</v>
+        <v>113.840063604848</v>
       </c>
       <c r="R3">
-        <v>95.84291538229522</v>
+        <v>1024.560572443632</v>
       </c>
       <c r="S3">
-        <v>0.05698291336157083</v>
+        <v>0.0601161385117083</v>
       </c>
       <c r="T3">
-        <v>0.05698291336157083</v>
+        <v>0.06856292423398545</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>11.8640909983488</v>
+        <v>12.44223866666667</v>
       </c>
       <c r="H4">
-        <v>11.8640909983488</v>
+        <v>37.326716</v>
       </c>
       <c r="I4">
-        <v>0.7736875767822819</v>
+        <v>0.7536321101125724</v>
       </c>
       <c r="J4">
-        <v>0.7736875767822819</v>
+        <v>0.8014994705408</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>10.4870230256977</v>
+        <v>12.129045</v>
       </c>
       <c r="N4">
-        <v>10.4870230256977</v>
+        <v>36.387135</v>
       </c>
       <c r="O4">
-        <v>0.09561052460521154</v>
+        <v>0.1057454494708373</v>
       </c>
       <c r="P4">
-        <v>0.09561052460521154</v>
+        <v>0.1134007945935868</v>
       </c>
       <c r="Q4">
-        <v>124.4189954786567</v>
+        <v>150.91247268874</v>
       </c>
       <c r="R4">
-        <v>124.4189954786567</v>
+        <v>1358.21225419866</v>
       </c>
       <c r="S4">
-        <v>0.07397267509668885</v>
+        <v>0.07969316621950955</v>
       </c>
       <c r="T4">
-        <v>0.07397267509668885</v>
+        <v>0.0908906768256658</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>11.8640909983488</v>
+        <v>12.44223866666667</v>
       </c>
       <c r="H5">
-        <v>11.8640909983488</v>
+        <v>37.326716</v>
       </c>
       <c r="I5">
-        <v>0.7736875767822819</v>
+        <v>0.7536321101125724</v>
       </c>
       <c r="J5">
-        <v>0.7736875767822819</v>
+        <v>0.8014994705408</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>14.1757231483377</v>
+        <v>14.177359</v>
       </c>
       <c r="N5">
-        <v>14.1757231483377</v>
+        <v>42.532077</v>
       </c>
       <c r="O5">
-        <v>0.129240521695206</v>
+        <v>0.1236033999184949</v>
       </c>
       <c r="P5">
-        <v>0.129240521695206</v>
+        <v>0.1325515550349214</v>
       </c>
       <c r="Q5">
-        <v>168.182069399278</v>
+        <v>176.3980843410147</v>
       </c>
       <c r="R5">
-        <v>168.182069399278</v>
+        <v>1587.582759069132</v>
       </c>
       <c r="S5">
-        <v>0.09999178605244187</v>
+        <v>0.09315149109766348</v>
       </c>
       <c r="T5">
-        <v>0.09999178605244187</v>
+        <v>0.1062400011798492</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>11.8640909983488</v>
+        <v>12.44223866666667</v>
       </c>
       <c r="H6">
-        <v>11.8640909983488</v>
+        <v>37.326716</v>
       </c>
       <c r="I6">
-        <v>0.7736875767822819</v>
+        <v>0.7536321101125724</v>
       </c>
       <c r="J6">
-        <v>0.7736875767822819</v>
+        <v>0.8014994705408</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>23.2068563485794</v>
+        <v>23.229232</v>
       </c>
       <c r="N6">
-        <v>23.2068563485794</v>
+        <v>46.458464</v>
       </c>
       <c r="O6">
-        <v>0.2115776521600459</v>
+        <v>0.2025209386808572</v>
       </c>
       <c r="P6">
-        <v>0.2115776521600459</v>
+        <v>0.1447881712368271</v>
       </c>
       <c r="Q6">
-        <v>275.3282555051546</v>
+        <v>289.0236485873706</v>
       </c>
       <c r="R6">
-        <v>275.3282555051546</v>
+        <v>1734.141891524224</v>
       </c>
       <c r="S6">
-        <v>0.1636950010009905</v>
+        <v>0.1526262823600333</v>
       </c>
       <c r="T6">
-        <v>0.1636950010009905</v>
+        <v>0.1160476425868876</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.69112362355757</v>
+        <v>0.7146796666666667</v>
       </c>
       <c r="H7">
-        <v>0.69112362355757</v>
+        <v>2.144039</v>
       </c>
       <c r="I7">
-        <v>0.04506993090677287</v>
+        <v>0.04328847562517017</v>
       </c>
       <c r="J7">
-        <v>0.04506993090677287</v>
+        <v>0.04603796710428066</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>53.7368122527561</v>
+        <v>56.01527666666667</v>
       </c>
       <c r="N7">
-        <v>53.7368122527561</v>
+        <v>168.04583</v>
       </c>
       <c r="O7">
-        <v>0.4899202373741286</v>
+        <v>0.4883616647765734</v>
       </c>
       <c r="P7">
-        <v>0.4899202373741286</v>
+        <v>0.5237161609491596</v>
       </c>
       <c r="Q7">
-        <v>37.13878040255762</v>
+        <v>40.03297925637445</v>
       </c>
       <c r="R7">
-        <v>37.13878040255762</v>
+        <v>360.29681330737</v>
       </c>
       <c r="S7">
-        <v>0.02208067124828174</v>
+        <v>0.02114043202194823</v>
       </c>
       <c r="T7">
-        <v>0.02208067124828174</v>
+        <v>0.02411082738975757</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.69112362355757</v>
+        <v>0.7146796666666667</v>
       </c>
       <c r="H8">
-        <v>0.69112362355757</v>
+        <v>2.144039</v>
       </c>
       <c r="I8">
-        <v>0.04506993090677287</v>
+        <v>0.04328847562517017</v>
       </c>
       <c r="J8">
-        <v>0.04506993090677287</v>
+        <v>0.04603796710428066</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>8.078403595828309</v>
+        <v>9.149483999999999</v>
       </c>
       <c r="N8">
-        <v>8.078403595828309</v>
+        <v>27.448452</v>
       </c>
       <c r="O8">
-        <v>0.07365106416540794</v>
+        <v>0.0797685471532371</v>
       </c>
       <c r="P8">
-        <v>0.07365106416540794</v>
+        <v>0.08554331818550501</v>
       </c>
       <c r="Q8">
-        <v>5.583175565709364</v>
+        <v>6.538950175292</v>
       </c>
       <c r="R8">
-        <v>5.583175565709364</v>
+        <v>58.850551577628</v>
       </c>
       <c r="S8">
-        <v>0.003319448373145231</v>
+        <v>0.003453058809098142</v>
       </c>
       <c r="T8">
-        <v>0.003319448373145231</v>
+        <v>0.003938240468615293</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.69112362355757</v>
+        <v>0.7146796666666667</v>
       </c>
       <c r="H9">
-        <v>0.69112362355757</v>
+        <v>2.144039</v>
       </c>
       <c r="I9">
-        <v>0.04506993090677287</v>
+        <v>0.04328847562517017</v>
       </c>
       <c r="J9">
-        <v>0.04506993090677287</v>
+        <v>0.04603796710428066</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>10.4870230256977</v>
+        <v>12.129045</v>
       </c>
       <c r="N9">
-        <v>10.4870230256977</v>
+        <v>36.387135</v>
       </c>
       <c r="O9">
-        <v>0.09561052460521154</v>
+        <v>0.1057454494708373</v>
       </c>
       <c r="P9">
-        <v>0.09561052460521154</v>
+        <v>0.1134007945935868</v>
       </c>
       <c r="Q9">
-        <v>7.247829353851866</v>
+        <v>8.668381837585001</v>
       </c>
       <c r="R9">
-        <v>7.247829353851866</v>
+        <v>78.01543653826501</v>
       </c>
       <c r="S9">
-        <v>0.004309159737917191</v>
+        <v>0.004577559311891006</v>
       </c>
       <c r="T9">
-        <v>0.004309159737917191</v>
+        <v>0.005220742051098836</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.69112362355757</v>
+        <v>0.7146796666666667</v>
       </c>
       <c r="H10">
-        <v>0.69112362355757</v>
+        <v>2.144039</v>
       </c>
       <c r="I10">
-        <v>0.04506993090677287</v>
+        <v>0.04328847562517017</v>
       </c>
       <c r="J10">
-        <v>0.04506993090677287</v>
+        <v>0.04603796710428066</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>14.1757231483377</v>
+        <v>14.177359</v>
       </c>
       <c r="N10">
-        <v>14.1757231483377</v>
+        <v>42.532077</v>
       </c>
       <c r="O10">
-        <v>0.129240521695206</v>
+        <v>0.1236033999184949</v>
       </c>
       <c r="P10">
-        <v>0.129240521695206</v>
+        <v>0.1325515550349214</v>
       </c>
       <c r="Q10">
-        <v>9.797177148828075</v>
+        <v>10.13227020433367</v>
       </c>
       <c r="R10">
-        <v>9.797177148828075</v>
+        <v>91.19043183900301</v>
       </c>
       <c r="S10">
-        <v>0.005824861383158214</v>
+        <v>0.005350602764559929</v>
       </c>
       <c r="T10">
-        <v>0.005824861383158214</v>
+        <v>0.006102404130318961</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.69112362355757</v>
+        <v>0.7146796666666667</v>
       </c>
       <c r="H11">
-        <v>0.69112362355757</v>
+        <v>2.144039</v>
       </c>
       <c r="I11">
-        <v>0.04506993090677287</v>
+        <v>0.04328847562517017</v>
       </c>
       <c r="J11">
-        <v>0.04506993090677287</v>
+        <v>0.04603796710428066</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>23.2068563485794</v>
+        <v>23.229232</v>
       </c>
       <c r="N11">
-        <v>23.2068563485794</v>
+        <v>46.458464</v>
       </c>
       <c r="O11">
-        <v>0.2115776521600459</v>
+        <v>0.2025209386808572</v>
       </c>
       <c r="P11">
-        <v>0.2115776521600459</v>
+        <v>0.1447881712368271</v>
       </c>
       <c r="Q11">
-        <v>16.03880665101019</v>
+        <v>16.60145978268267</v>
       </c>
       <c r="R11">
-        <v>16.03880665101019</v>
+        <v>99.608758696096</v>
       </c>
       <c r="S11">
-        <v>0.009535790164270492</v>
+        <v>0.008766822717672871</v>
       </c>
       <c r="T11">
-        <v>0.009535790164270492</v>
+        <v>0.006665753064490002</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>2.77925804429671</v>
+        <v>0.3947903333333333</v>
       </c>
       <c r="H12">
-        <v>2.77925804429671</v>
+        <v>1.184371</v>
       </c>
       <c r="I12">
-        <v>0.1812424923109451</v>
+        <v>0.02391263179665035</v>
       </c>
       <c r="J12">
-        <v>0.1812424923109451</v>
+        <v>0.02543145583511493</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>53.7368122527561</v>
+        <v>56.01527666666667</v>
       </c>
       <c r="N12">
-        <v>53.7368122527561</v>
+        <v>168.04583</v>
       </c>
       <c r="O12">
-        <v>0.4899202373741286</v>
+        <v>0.4883616647765734</v>
       </c>
       <c r="P12">
-        <v>0.4899202373741286</v>
+        <v>0.5237161609491596</v>
       </c>
       <c r="Q12">
-        <v>149.3484677283344</v>
+        <v>22.11428974699222</v>
       </c>
       <c r="R12">
-        <v>149.3484677283344</v>
+        <v>199.02860772293</v>
       </c>
       <c r="S12">
-        <v>0.08879436485525691</v>
+        <v>0.01167801267340139</v>
       </c>
       <c r="T12">
-        <v>0.08879436485525691</v>
+        <v>0.01331886441731449</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,61 +1207,61 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>2.77925804429671</v>
+        <v>0.3947903333333333</v>
       </c>
       <c r="H13">
-        <v>2.77925804429671</v>
+        <v>1.184371</v>
       </c>
       <c r="I13">
-        <v>0.1812424923109451</v>
+        <v>0.02391263179665035</v>
       </c>
       <c r="J13">
-        <v>0.1812424923109451</v>
+        <v>0.02543145583511493</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>8.078403595828309</v>
+        <v>9.149483999999999</v>
       </c>
       <c r="N13">
-        <v>8.078403595828309</v>
+        <v>27.448452</v>
       </c>
       <c r="O13">
-        <v>0.07365106416540794</v>
+        <v>0.0797685471532371</v>
       </c>
       <c r="P13">
-        <v>0.07365106416540794</v>
+        <v>0.08554331818550501</v>
       </c>
       <c r="Q13">
-        <v>22.4519681787813</v>
+        <v>3.612127838188</v>
       </c>
       <c r="R13">
-        <v>22.4519681787813</v>
+        <v>32.50915054369199</v>
       </c>
       <c r="S13">
-        <v>0.01334870243069187</v>
+        <v>0.0019074758970291</v>
       </c>
       <c r="T13">
-        <v>0.01334870243069187</v>
+        <v>0.002175491118423854</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>2.77925804429671</v>
+        <v>0.3947903333333333</v>
       </c>
       <c r="H14">
-        <v>2.77925804429671</v>
+        <v>1.184371</v>
       </c>
       <c r="I14">
-        <v>0.1812424923109451</v>
+        <v>0.02391263179665035</v>
       </c>
       <c r="J14">
-        <v>0.1812424923109451</v>
+        <v>0.02543145583511493</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>10.4870230256977</v>
+        <v>12.129045</v>
       </c>
       <c r="N14">
-        <v>10.4870230256977</v>
+        <v>36.387135</v>
       </c>
       <c r="O14">
-        <v>0.09561052460521154</v>
+        <v>0.1057454494708373</v>
       </c>
       <c r="P14">
-        <v>0.09561052460521154</v>
+        <v>0.1134007945935868</v>
       </c>
       <c r="Q14">
-        <v>29.14614310489516</v>
+        <v>4.788429718564999</v>
       </c>
       <c r="R14">
-        <v>29.14614310489516</v>
+        <v>43.09586746708499</v>
       </c>
       <c r="S14">
-        <v>0.01732868977060548</v>
+        <v>0.002528651997367428</v>
       </c>
       <c r="T14">
-        <v>0.01732868977060548</v>
+        <v>0.002883947299373741</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1331,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>2.77925804429671</v>
+        <v>0.3947903333333333</v>
       </c>
       <c r="H15">
-        <v>2.77925804429671</v>
+        <v>1.184371</v>
       </c>
       <c r="I15">
-        <v>0.1812424923109451</v>
+        <v>0.02391263179665035</v>
       </c>
       <c r="J15">
-        <v>0.1812424923109451</v>
+        <v>0.02543145583511493</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>14.1757231483377</v>
+        <v>14.177359</v>
       </c>
       <c r="N15">
-        <v>14.1757231483377</v>
+        <v>42.532077</v>
       </c>
       <c r="O15">
-        <v>0.129240521695206</v>
+        <v>0.1236033999184949</v>
       </c>
       <c r="P15">
-        <v>0.129240521695206</v>
+        <v>0.1325515550349214</v>
       </c>
       <c r="Q15">
-        <v>39.39799259374064</v>
+        <v>5.597084285396333</v>
       </c>
       <c r="R15">
-        <v>39.39799259374064</v>
+        <v>50.37375856856699</v>
       </c>
       <c r="S15">
-        <v>0.02342387425960591</v>
+        <v>0.002955682591065091</v>
       </c>
       <c r="T15">
-        <v>0.02342387425960591</v>
+        <v>0.00337097901774641</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,371 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.3947903333333333</v>
+      </c>
+      <c r="H16">
+        <v>1.184371</v>
+      </c>
+      <c r="I16">
+        <v>0.02391263179665035</v>
+      </c>
+      <c r="J16">
+        <v>0.02543145583511493</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>23.229232</v>
+      </c>
+      <c r="N16">
+        <v>46.458464</v>
+      </c>
+      <c r="O16">
+        <v>0.2025209386808572</v>
+      </c>
+      <c r="P16">
+        <v>0.1447881712368271</v>
+      </c>
+      <c r="Q16">
+        <v>9.170676244357333</v>
+      </c>
+      <c r="R16">
+        <v>55.02405746614399</v>
+      </c>
+      <c r="S16">
+        <v>0.004842808637787342</v>
+      </c>
+      <c r="T16">
+        <v>0.003682173982256426</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>2.9579895</v>
+      </c>
+      <c r="H17">
+        <v>5.915979</v>
+      </c>
+      <c r="I17">
+        <v>0.1791667824656072</v>
+      </c>
+      <c r="J17">
+        <v>0.1270311065198045</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>56.01527666666667</v>
+      </c>
+      <c r="N17">
+        <v>168.04583</v>
+      </c>
+      <c r="O17">
+        <v>0.4883616647765734</v>
+      </c>
+      <c r="P17">
+        <v>0.5237161609491596</v>
+      </c>
+      <c r="Q17">
+        <v>165.692600219595</v>
+      </c>
+      <c r="R17">
+        <v>994.15560131757</v>
+      </c>
+      <c r="S17">
+        <v>0.0874981881575661</v>
+      </c>
+      <c r="T17">
+        <v>0.06652824342767578</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>2.9579895</v>
+      </c>
+      <c r="H18">
+        <v>5.915979</v>
+      </c>
+      <c r="I18">
+        <v>0.1791667824656072</v>
+      </c>
+      <c r="J18">
+        <v>0.1270311065198045</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>9.149483999999999</v>
+      </c>
+      <c r="N18">
+        <v>27.448452</v>
+      </c>
+      <c r="O18">
+        <v>0.0797685471532371</v>
+      </c>
+      <c r="P18">
+        <v>0.08554331818550501</v>
+      </c>
+      <c r="Q18">
+        <v>27.064077602418</v>
+      </c>
+      <c r="R18">
+        <v>162.384465614508</v>
+      </c>
+      <c r="S18">
+        <v>0.01429187393540156</v>
+      </c>
+      <c r="T18">
+        <v>0.01086666236448042</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>2.9579895</v>
+      </c>
+      <c r="H19">
+        <v>5.915979</v>
+      </c>
+      <c r="I19">
+        <v>0.1791667824656072</v>
+      </c>
+      <c r="J19">
+        <v>0.1270311065198045</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>12.129045</v>
+      </c>
+      <c r="N19">
+        <v>36.387135</v>
+      </c>
+      <c r="O19">
+        <v>0.1057454494708373</v>
+      </c>
+      <c r="P19">
+        <v>0.1134007945935868</v>
+      </c>
+      <c r="Q19">
+        <v>35.8775877550275</v>
+      </c>
+      <c r="R19">
+        <v>215.265526530165</v>
+      </c>
+      <c r="S19">
+        <v>0.01894607194206937</v>
+      </c>
+      <c r="T19">
+        <v>0.01440542841744839</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
         <v>22</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>2.77925804429671</v>
-      </c>
-      <c r="H16">
-        <v>2.77925804429671</v>
-      </c>
-      <c r="I16">
-        <v>0.1812424923109451</v>
-      </c>
-      <c r="J16">
-        <v>0.1812424923109451</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>23.2068563485794</v>
-      </c>
-      <c r="N16">
-        <v>23.2068563485794</v>
-      </c>
-      <c r="O16">
-        <v>0.2115776521600459</v>
-      </c>
-      <c r="P16">
-        <v>0.2115776521600459</v>
-      </c>
-      <c r="Q16">
-        <v>64.49784218962746</v>
-      </c>
-      <c r="R16">
-        <v>64.49784218962746</v>
-      </c>
-      <c r="S16">
-        <v>0.03834686099478494</v>
-      </c>
-      <c r="T16">
-        <v>0.03834686099478494</v>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>2.9579895</v>
+      </c>
+      <c r="H20">
+        <v>5.915979</v>
+      </c>
+      <c r="I20">
+        <v>0.1791667824656072</v>
+      </c>
+      <c r="J20">
+        <v>0.1270311065198045</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>14.177359</v>
+      </c>
+      <c r="N20">
+        <v>42.532077</v>
+      </c>
+      <c r="O20">
+        <v>0.1236033999184949</v>
+      </c>
+      <c r="P20">
+        <v>0.1325515550349214</v>
+      </c>
+      <c r="Q20">
+        <v>41.9364790597305</v>
+      </c>
+      <c r="R20">
+        <v>251.618874358383</v>
+      </c>
+      <c r="S20">
+        <v>0.02214562346520643</v>
+      </c>
+      <c r="T20">
+        <v>0.01683817070700683</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>2.9579895</v>
+      </c>
+      <c r="H21">
+        <v>5.915979</v>
+      </c>
+      <c r="I21">
+        <v>0.1791667824656072</v>
+      </c>
+      <c r="J21">
+        <v>0.1270311065198045</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>23.229232</v>
+      </c>
+      <c r="N21">
+        <v>46.458464</v>
+      </c>
+      <c r="O21">
+        <v>0.2025209386808572</v>
+      </c>
+      <c r="P21">
+        <v>0.1447881712368271</v>
+      </c>
+      <c r="Q21">
+        <v>68.711824349064</v>
+      </c>
+      <c r="R21">
+        <v>274.847297396256</v>
+      </c>
+      <c r="S21">
+        <v>0.03628502496536371</v>
+      </c>
+      <c r="T21">
+        <v>0.01839260160319308</v>
       </c>
     </row>
   </sheetData>
